--- a/NEW HR/AMBION, MARIETA.xlsx
+++ b/NEW HR/AMBION, MARIETA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\DONE\DONE ENCODING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>2/13,14/2023</t>
+  </si>
+  <si>
+    <t>4/6,7,10/2023</t>
   </si>
 </sst>
 </file>
@@ -3018,9 +3021,9 @@
   <dimension ref="A2:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3960" topLeftCell="A61" activePane="bottomLeft"/>
+      <pane ySplit="3960" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3190,7 +3193,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>48.75</v>
+        <v>47</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3200,7 +3203,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>61.75</v>
+        <v>62</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4688,26 +4691,40 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
+      <c r="A80" s="42">
+        <v>44986</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="41"/>
       <c r="E80" s="10"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H80" s="41"/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H80" s="41">
+        <v>1</v>
+      </c>
       <c r="I80" s="10"/>
       <c r="J80" s="12"/>
-      <c r="K80" s="21"/>
+      <c r="K80" s="52">
+        <v>45007</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="42"/>
-      <c r="B81" s="21"/>
+      <c r="B81" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="C81" s="14"/>
-      <c r="D81" s="41"/>
+      <c r="D81" s="41">
+        <v>3</v>
+      </c>
       <c r="E81" s="10"/>
       <c r="F81" s="21"/>
       <c r="G81" s="14" t="str">
@@ -4717,7 +4734,9 @@
       <c r="H81" s="41"/>
       <c r="I81" s="10"/>
       <c r="J81" s="12"/>
-      <c r="K81" s="21"/>
+      <c r="K81" s="21" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="42"/>
@@ -5073,7 +5092,7 @@
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5861,16 +5880,13 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="21"/>
       <c r="C37" s="14"/>
       <c r="D37" s="41"/>
       <c r="E37" s="10"/>
       <c r="F37" s="21"/>
-      <c r="G37" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G37" s="14"/>
       <c r="H37" s="41"/>
       <c r="I37" s="10"/>
       <c r="J37" s="12"/>
@@ -5883,10 +5899,7 @@
       <c r="D38" s="41"/>
       <c r="E38" s="10"/>
       <c r="F38" s="21"/>
-      <c r="G38" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G38" s="14"/>
       <c r="H38" s="41"/>
       <c r="I38" s="10"/>
       <c r="J38" s="12"/>

--- a/NEW HR/AMBION, MARIETA.xlsx
+++ b/NEW HR/AMBION, MARIETA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="84">
   <si>
     <t>PERIOD</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>4/6,7,10/2023</t>
+  </si>
+  <si>
+    <t>5/15,16/2023</t>
   </si>
 </sst>
 </file>
@@ -2641,7 +2644,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K100" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K99" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -3018,12 +3021,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K100"/>
+  <dimension ref="A2:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3960" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3193,7 +3196,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>47</v>
+        <v>51.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3203,7 +3206,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>62</v>
+        <v>62.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4717,26 +4720,28 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
+      <c r="A81" s="42">
+        <v>45017</v>
+      </c>
       <c r="B81" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="41">
-        <v>3</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D81" s="41"/>
       <c r="E81" s="10"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H81" s="41"/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H81" s="41">
+        <v>1</v>
+      </c>
       <c r="I81" s="10"/>
       <c r="J81" s="12"/>
-      <c r="K81" s="21" t="s">
-        <v>82</v>
-      </c>
+      <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="42"/>
@@ -5011,36 +5016,20 @@
       <c r="K98" s="21"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="42"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="41"/>
+      <c r="A99" s="43"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="45"/>
       <c r="E99" s="10"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H99" s="41"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="44" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H99" s="45"/>
       <c r="I99" s="10"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="21"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="43"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="44" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H100" s="45"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="13"/>
-      <c r="K100" s="16"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5089,10 +5078,10 @@
   </sheetPr>
   <dimension ref="A2:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A19" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5262,7 +5251,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>15.975999999999999</v>
+        <v>10.975999999999999</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -5880,7 +5869,9 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
+      <c r="A37" s="50" t="s">
+        <v>79</v>
+      </c>
       <c r="B37" s="21"/>
       <c r="C37" s="14"/>
       <c r="D37" s="41"/>
@@ -5893,23 +5884,37 @@
       <c r="K37" s="21"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="42">
+        <v>44986</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="C38" s="14"/>
-      <c r="D38" s="41"/>
+      <c r="D38" s="41">
+        <v>3</v>
+      </c>
       <c r="E38" s="10"/>
       <c r="F38" s="21"/>
       <c r="G38" s="14"/>
       <c r="H38" s="41"/>
       <c r="I38" s="10"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="21"/>
+      <c r="K38" s="21" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="42">
+        <v>45047</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="C39" s="14"/>
-      <c r="D39" s="41"/>
+      <c r="D39" s="41">
+        <v>2</v>
+      </c>
       <c r="E39" s="10"/>
       <c r="F39" s="21"/>
       <c r="G39" s="14" t="str">
@@ -5919,7 +5924,9 @@
       <c r="H39" s="41"/>
       <c r="I39" s="10"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="21"/>
+      <c r="K39" s="21" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>

--- a/NEW HR/AMBION, MARIETA.xlsx
+++ b/NEW HR/AMBION, MARIETA.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>5/15,16/2023</t>
+  </si>
+  <si>
+    <t>06/21-22/2023</t>
   </si>
 </sst>
 </file>
@@ -690,17 +693,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -710,6 +710,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1240,7 +1243,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1283,7 +1286,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1350,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1407,7 +1410,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1473,7 +1476,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1536,7 +1539,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,7 +1637,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1693,7 +1696,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1758,7 +1761,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1804,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,7 +1879,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +2065,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2128,7 +2131,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,7 +2189,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2255,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2311,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2386,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,7 +2429,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2495,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,7 +2551,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3056,14 +3059,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3075,14 +3078,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3096,16 +3099,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3138,18 +3141,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5033,17 +5036,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5079,9 +5082,9 @@
   <dimension ref="A2:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A22" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5111,14 +5114,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5130,14 +5133,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5151,16 +5154,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5193,18 +5196,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5251,7 +5254,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>10.975999999999999</v>
+        <v>8.9759999999999991</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -5929,10 +5932,16 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="42">
+        <v>45078</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="C40" s="14"/>
-      <c r="D40" s="41"/>
+      <c r="D40" s="41">
+        <v>2</v>
+      </c>
       <c r="E40" s="10"/>
       <c r="F40" s="21"/>
       <c r="G40" s="14" t="str">
@@ -5942,7 +5951,9 @@
       <c r="H40" s="41"/>
       <c r="I40" s="10"/>
       <c r="J40" s="12"/>
-      <c r="K40" s="21"/>
+      <c r="K40" s="21" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="42"/>

--- a/NEW HR/AMBION, MARIETA.xlsx
+++ b/NEW HR/AMBION, MARIETA.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -5084,7 +5084,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5956,8 +5956,12 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="42">
+        <v>45108</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="C41" s="14"/>
       <c r="D41" s="41"/>
       <c r="E41" s="10"/>
@@ -5969,11 +5973,15 @@
       <c r="H41" s="41"/>
       <c r="I41" s="10"/>
       <c r="J41" s="12"/>
-      <c r="K41" s="21"/>
+      <c r="K41" s="52">
+        <v>45120</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="42"/>
-      <c r="B42" s="21"/>
+      <c r="B42" s="21" t="s">
+        <v>66</v>
+      </c>
       <c r="C42" s="14"/>
       <c r="D42" s="41"/>
       <c r="E42" s="10"/>
@@ -5985,7 +5993,9 @@
       <c r="H42" s="41"/>
       <c r="I42" s="10"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="21"/>
+      <c r="K42" s="52">
+        <v>45124</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="42"/>

--- a/NEW HR/AMBION, MARIETA.xlsx
+++ b/NEW HR/AMBION, MARIETA.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -693,14 +693,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -710,9 +713,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1243,7 +1243,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,7 +1286,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1350,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,7 +1410,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1476,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,7 +1539,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1637,7 +1637,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1696,7 +1696,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,7 +1761,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,7 +1804,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1879,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2065,7 +2065,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2131,7 +2131,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2189,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,7 +2255,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2311,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2386,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2429,7 +2429,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2495,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2551,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3029,7 +3029,7 @@
     <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3960" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81:XFD81"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3059,14 +3059,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3078,14 +3078,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3099,16 +3099,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3141,18 +3141,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3199,7 +3199,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>55</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3209,7 +3209,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>62.25</v>
+        <v>66</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4747,15 +4747,19 @@
       <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
+      <c r="A82" s="42">
+        <v>45047</v>
+      </c>
       <c r="B82" s="21"/>
-      <c r="C82" s="14"/>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="41"/>
       <c r="E82" s="10"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="41"/>
       <c r="I82" s="10"/>
@@ -4763,15 +4767,19 @@
       <c r="K82" s="21"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
+      <c r="A83" s="42">
+        <v>45078</v>
+      </c>
       <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="41"/>
       <c r="E83" s="10"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="41"/>
       <c r="I83" s="10"/>
@@ -4779,15 +4787,19 @@
       <c r="K83" s="21"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
+      <c r="A84" s="42">
+        <v>45108</v>
+      </c>
       <c r="B84" s="21"/>
-      <c r="C84" s="14"/>
+      <c r="C84" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="41"/>
       <c r="E84" s="10"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="41"/>
       <c r="I84" s="10"/>
@@ -4795,7 +4807,9 @@
       <c r="K84" s="21"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
+      <c r="A85" s="42">
+        <v>45139</v>
+      </c>
       <c r="B85" s="21"/>
       <c r="C85" s="14"/>
       <c r="D85" s="41"/>
@@ -5036,17 +5050,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5084,7 +5098,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5114,14 +5128,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5133,14 +5147,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5154,16 +5168,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5196,18 +5210,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5254,7 +5268,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>8.9759999999999991</v>
+        <v>6.9759999999999991</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -5983,7 +5997,9 @@
         <v>66</v>
       </c>
       <c r="C42" s="14"/>
-      <c r="D42" s="41"/>
+      <c r="D42" s="41">
+        <v>1</v>
+      </c>
       <c r="E42" s="10"/>
       <c r="F42" s="21"/>
       <c r="G42" s="14" t="str">
@@ -5998,10 +6014,16 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="21"/>
+      <c r="A43" s="42">
+        <v>45139</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>66</v>
+      </c>
       <c r="C43" s="14"/>
-      <c r="D43" s="41"/>
+      <c r="D43" s="41">
+        <v>1</v>
+      </c>
       <c r="E43" s="10"/>
       <c r="F43" s="21"/>
       <c r="G43" s="14" t="str">
@@ -6011,7 +6033,9 @@
       <c r="H43" s="41"/>
       <c r="I43" s="10"/>
       <c r="J43" s="12"/>
-      <c r="K43" s="21"/>
+      <c r="K43" s="52">
+        <v>45147</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>

--- a/NEW HR/AMBION, MARIETA.xlsx
+++ b/NEW HR/AMBION, MARIETA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -693,17 +693,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -713,6 +710,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1243,7 +1243,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,7 +1286,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1350,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,7 +1410,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1476,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,7 +1539,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1637,7 +1637,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1696,7 +1696,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,7 +1761,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,7 +1804,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1879,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2065,7 +2065,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2131,7 +2131,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2189,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,7 +2255,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2311,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2386,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2429,7 +2429,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2495,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2551,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3029,7 +3029,7 @@
     <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3960" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3059,14 +3059,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3078,14 +3078,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3099,16 +3099,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3141,18 +3141,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3199,7 +3199,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3209,7 +3209,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>66</v>
+        <v>67.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4811,13 +4811,15 @@
         <v>45139</v>
       </c>
       <c r="B85" s="21"/>
-      <c r="C85" s="14"/>
+      <c r="C85" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="41"/>
       <c r="E85" s="10"/>
       <c r="F85" s="21"/>
-      <c r="G85" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="41"/>
       <c r="I85" s="10"/>
@@ -5050,17 +5052,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5098,7 +5100,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5128,14 +5130,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5147,14 +5149,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5168,16 +5170,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5210,18 +5212,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5268,7 +5270,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>6.9759999999999991</v>
+        <v>5.9759999999999991</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -6038,10 +6040,16 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="21"/>
+      <c r="A44" s="42">
+        <v>45170</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>66</v>
+      </c>
       <c r="C44" s="14"/>
-      <c r="D44" s="41"/>
+      <c r="D44" s="41">
+        <v>1</v>
+      </c>
       <c r="E44" s="10"/>
       <c r="F44" s="21"/>
       <c r="G44" s="14" t="str">
@@ -6051,7 +6059,9 @@
       <c r="H44" s="41"/>
       <c r="I44" s="10"/>
       <c r="J44" s="12"/>
-      <c r="K44" s="21"/>
+      <c r="K44" s="52">
+        <v>45196</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="42"/>
